--- a/result0523.xlsx
+++ b/result0523.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="79">
   <si>
     <t>No</t>
   </si>
@@ -50,6 +50,9 @@
     <t>set</t>
   </si>
   <si>
+    <t>Is-padded</t>
+  </si>
+  <si>
     <t>expnum</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
     <t>1W</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>0523exp01</t>
   </si>
   <si>
@@ -170,6 +176,9 @@
     <t>E13</t>
   </si>
   <si>
+    <t>50 Epoch used 20 min</t>
+  </si>
+  <si>
     <t>exp06</t>
   </si>
   <si>
@@ -188,16 +197,61 @@
     <t>0523exp08</t>
   </si>
   <si>
-    <t>to be continued</t>
-  </si>
-  <si>
     <t>E50=0.695 E104=0.699</t>
   </si>
   <si>
-    <t>Accuracy improved with bigger dataset</t>
-  </si>
-  <si>
-    <t>50 Epoch used 20 min</t>
+    <t>Accuracy improved with bigger dataset.Netowrk is not complex enough.</t>
+  </si>
+  <si>
+    <t>Same setting with 4w</t>
+  </si>
+  <si>
+    <t>exp09</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>0523exp09</t>
+  </si>
+  <si>
+    <t>E33 descending</t>
+  </si>
+  <si>
+    <t>exp10</t>
+  </si>
+  <si>
+    <t>0523exp10</t>
+  </si>
+  <si>
+    <t>E0 descending to 0.4</t>
+  </si>
+  <si>
+    <t>E17 descending</t>
+  </si>
+  <si>
+    <t>exp11</t>
+  </si>
+  <si>
+    <t>exp12</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>exp13</t>
+  </si>
+  <si>
+    <t>Check RNN-demb=50</t>
+  </si>
+  <si>
+    <t>RNN</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Check RNN-demb=100</t>
   </si>
 </sst>
 </file>
@@ -212,6 +266,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -301,17 +356,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T13" activeCellId="0" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="16" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="17" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="20.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -372,25 +427,28 @@
       <c r="S1" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>4800</v>
@@ -405,48 +463,51 @@
         <v>1</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="O2" s="0" t="n">
         <v>0.581</v>
       </c>
-      <c r="O2" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="0" t="n">
+      <c r="P2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="0" t="n">
         <v>0.653</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>28</v>
+      <c r="R2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>4800</v>
@@ -461,48 +522,51 @@
         <v>1</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="O3" s="0" t="n">
         <v>0.637</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="0" t="n">
+      <c r="P3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="0" t="n">
         <v>0.559</v>
       </c>
-      <c r="Q3" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="R3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>4800</v>
@@ -517,53 +581,56 @@
         <v>1</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="O4" s="0" t="n">
         <v>0.605</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="P4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>0.587</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>0.587</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>4800</v>
@@ -578,48 +645,51 @@
         <v>1</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="O6" s="0" t="n">
         <v>0.579</v>
       </c>
-      <c r="O6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="0" t="n">
+      <c r="P6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="0" t="n">
         <v>0.531</v>
       </c>
-      <c r="Q6" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="R6" s="0" t="s">
-        <v>28</v>
+        <v>43</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>4800</v>
@@ -634,48 +704,51 @@
         <v>1</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="O7" s="0" t="n">
         <v>0.556</v>
       </c>
-      <c r="O7" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" s="0" t="n">
+      <c r="P7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="0" t="n">
         <v>0.596</v>
       </c>
-      <c r="Q7" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="R7" s="0" t="s">
-        <v>28</v>
+        <v>48</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>4800</v>
@@ -690,53 +763,59 @@
         <v>1</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="O8" s="0" t="n">
         <v>0.648</v>
       </c>
-      <c r="O8" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="P8" s="0" t="n">
+      <c r="P8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="0" t="n">
         <v>0.598</v>
       </c>
-      <c r="Q8" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="R8" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="V8" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>4800</v>
@@ -751,30 +830,33 @@
         <v>1</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>52</v>
+        <v>26</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>4800</v>
@@ -789,30 +871,33 @@
         <v>1</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>54</v>
+        <v>26</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>4800</v>
@@ -827,31 +912,465 @@
         <v>1</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N12" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="O12" s="0" t="n">
         <v>0.699</v>
       </c>
-      <c r="O12" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q12" s="0" t="s">
-        <v>32</v>
+      <c r="P12" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>0.683</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="T12" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>4800</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>0.647</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>4800</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>512</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>512</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>512</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>512</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/result0523.xlsx
+++ b/result0523.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="80">
   <si>
     <t>No</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>exp13</t>
+  </si>
+  <si>
+    <t>exp14</t>
   </si>
   <si>
     <t>Check RNN-demb=50</t>
@@ -356,10 +359,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T13" activeCellId="0" sqref="T13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1066,6 +1069,9 @@
       <c r="A16" s="0" t="s">
         <v>71</v>
       </c>
+      <c r="K16" s="0" t="s">
+        <v>50</v>
+      </c>
       <c r="N16" s="0" t="n">
         <v>10</v>
       </c>
@@ -1086,6 +1092,9 @@
       <c r="A17" s="0" t="s">
         <v>72</v>
       </c>
+      <c r="K17" s="0" t="s">
+        <v>50</v>
+      </c>
       <c r="N17" s="0" t="n">
         <v>30</v>
       </c>
@@ -1106,74 +1115,27 @@
       <c r="A18" s="0" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="K18" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="0" t="s">
+      <c r="K19" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>0.629</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>76</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>256</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>256</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>512</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>256</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1181,10 +1143,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>24</v>
@@ -1205,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1213,10 +1175,10 @@
         <v>21</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>24</v>
@@ -1237,76 +1199,76 @@
         <v>1</v>
       </c>
       <c r="K24" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="0" t="n">
         <v>50</v>
       </c>
+      <c r="G25" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="B26" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="0" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <v>256</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <v>256</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" s="0" t="s">
-        <v>36</v>
+      <c r="E26" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>512</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <v>512</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>256</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" s="0" t="s">
-        <v>36</v>
+      <c r="A28" s="0" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1314,10 +1276,10 @@
         <v>21</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>24</v>
@@ -1338,7 +1300,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1346,10 +1308,10 @@
         <v>21</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>24</v>
@@ -1370,6 +1332,70 @@
         <v>1</v>
       </c>
       <c r="K30" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>512</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" s="0" t="s">
         <v>50</v>
       </c>
     </row>

--- a/result0523.xlsx
+++ b/result0523.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="86">
   <si>
     <t>No</t>
   </si>
@@ -245,13 +245,31 @@
     <t>exp14</t>
   </si>
   <si>
+    <t>RNN</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Train not powerful enough</t>
+  </si>
+  <si>
+    <t>50 epoch used 10 min</t>
+  </si>
+  <si>
+    <t>get 4w </t>
+  </si>
+  <si>
+    <t>E0</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>E34</t>
+  </si>
+  <si>
     <t>Check RNN-demb=50</t>
-  </si>
-  <si>
-    <t>RNN</t>
-  </si>
-  <si>
-    <t>F</t>
   </si>
   <si>
     <t>Check RNN-demb=100</t>
@@ -359,10 +377,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L42" activeCellId="0" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1133,269 +1151,456 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O34" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P34" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q34" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="R34" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="S34" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="T34" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="0" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="0" t="s">
+      <c r="D37" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="E37" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T37" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="0" t="n">
+      <c r="V37" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="0" t="n">
-        <v>256</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>256</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="0" t="s">
+      <c r="O39" s="0" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="P39" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="S39" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <v>0.699</v>
+      </c>
+      <c r="P40" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>4800</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" s="0" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="0" t="s">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="0" t="n">
+      <c r="E45" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G45" s="0" t="n">
         <v>512</v>
       </c>
-      <c r="H24" s="0" t="n">
-        <v>256</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" s="0" t="s">
+      <c r="H45" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" s="0" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="0" t="s">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="0" t="n">
+      <c r="E46" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="G25" s="0" t="n">
-        <v>256</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>256</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" s="0" t="s">
+      <c r="G46" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" s="0" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="0" t="s">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="0" t="n">
+      <c r="E47" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G47" s="0" t="n">
         <v>512</v>
       </c>
-      <c r="H26" s="0" t="n">
-        <v>256</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" s="0" t="s">
+      <c r="H47" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" s="0" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="0" t="s">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="0" t="n">
+      <c r="E50" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="G29" s="0" t="n">
-        <v>256</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>256</v>
-      </c>
-      <c r="I29" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" s="0" t="s">
+      <c r="G50" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" s="0" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="0" t="s">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="0" t="n">
+      <c r="E51" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="G51" s="0" t="n">
         <v>512</v>
       </c>
-      <c r="H30" s="0" t="n">
-        <v>256</v>
-      </c>
-      <c r="I30" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" s="0" t="s">
+      <c r="H51" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" s="0" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="0" t="s">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="0" t="n">
+      <c r="E52" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="G31" s="0" t="n">
-        <v>256</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>256</v>
-      </c>
-      <c r="I31" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" s="0" t="s">
+      <c r="G52" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" s="0" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="0" t="s">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="0" t="n">
+      <c r="E53" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="G53" s="0" t="n">
         <v>512</v>
       </c>
-      <c r="H32" s="0" t="n">
-        <v>256</v>
-      </c>
-      <c r="I32" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K32" s="0" t="s">
+      <c r="H53" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" s="0" t="s">
         <v>50</v>
       </c>
     </row>
